--- a/OptFramework/ERS-70-89 energy results.xlsx
+++ b/OptFramework/ERS-70-89 energy results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>GJ</t>
   </si>
@@ -79,16 +79,42 @@
   </si>
   <si>
     <t>BC80-89</t>
+  </si>
+  <si>
+    <t>AB80-89</t>
+  </si>
+  <si>
+    <t>AB70-79</t>
+  </si>
+  <si>
+    <t>ATL80-89</t>
+  </si>
+  <si>
+    <t>ATL70-79</t>
+  </si>
+  <si>
+    <t>MBSK80-89</t>
+  </si>
+  <si>
+    <t>MBSK70-79</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -114,12 +140,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,14 +448,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="69.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -485,7 +513,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6">
+      <c r="B6" s="3">
         <f t="shared" si="0"/>
         <v>14804.220091324201</v>
       </c>
@@ -583,7 +611,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16">
+      <c r="B16" s="3">
         <f>+C16*1000000/8760</f>
         <v>14034.93105022831</v>
       </c>
@@ -681,7 +709,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26">
+      <c r="B26" s="3">
         <f>+C26*1000000/8760</f>
         <v>13518.721689497717</v>
       </c>
@@ -779,12 +807,12 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36">
+      <c r="B36" s="3">
         <f>+C36*1000000/8760</f>
-        <v>13032.67408675799</v>
+        <v>13828.068835616439</v>
       </c>
       <c r="C36">
-        <v>114.166225</v>
+        <v>121.133883</v>
       </c>
       <c r="D36" t="s">
         <v>3</v>
@@ -822,11 +850,11 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40">
         <f>+SUM(B33:B38)</f>
-        <v>18558.862100456616</v>
+        <v>19354.256849315065</v>
       </c>
       <c r="C40">
         <f>+SUM(C33:C38)</f>
-        <v>162.57563199999998</v>
+        <v>169.54328999999998</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -867,22 +895,22 @@
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45">
         <f t="shared" si="7"/>
-        <v>31.809018264840184</v>
+        <v>42.973858447488581</v>
       </c>
       <c r="C45">
-        <v>0.27864699999999998</v>
+        <v>0.37645099999999998</v>
       </c>
       <c r="D45" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B46">
+      <c r="B46" s="3">
         <f>+C46*1000000/8760</f>
-        <v>13032.67408675799</v>
+        <v>12999.072488584476</v>
       </c>
       <c r="C46">
-        <v>114.166225</v>
+        <v>113.871875</v>
       </c>
       <c r="D46" t="s">
         <v>17</v>
@@ -891,10 +919,10 @@
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47">
         <f t="shared" ref="B47:B48" si="8">+C47*1000000/8760</f>
-        <v>151.35570776255707</v>
+        <v>132.78630136986303</v>
       </c>
       <c r="C47">
-        <v>1.3258760000000001</v>
+        <v>1.163208</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>
@@ -920,11 +948,11 @@
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50">
         <f>+SUM(B43:B48)</f>
-        <v>18239.019406392694</v>
+        <v>18198.013242009136</v>
       </c>
       <c r="C50">
         <f>+SUM(C43:C48)</f>
-        <v>159.77381</v>
+        <v>159.41459599999999</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -975,7 +1003,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B57">
+      <c r="B57" s="3">
         <f>+C57*1000000/8760</f>
         <v>13619.439497716896</v>
       </c>
@@ -1023,6 +1051,591 @@
       <c r="C61">
         <f>+SUM(C54:C59)</f>
         <v>164.869303</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <f t="shared" ref="B64:B66" si="11">+C64*1000000/8760</f>
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <f t="shared" si="11"/>
+        <v>3564.2764840182649</v>
+      </c>
+      <c r="C65">
+        <v>31.223061999999999</v>
+      </c>
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <f t="shared" si="11"/>
+        <v>70.539269406392691</v>
+      </c>
+      <c r="C66">
+        <v>0.61792400000000003</v>
+      </c>
+      <c r="D66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="3">
+        <f>+C67*1000000/8760</f>
+        <v>17264.900456621006</v>
+      </c>
+      <c r="C67">
+        <v>151.24052800000001</v>
+      </c>
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <f t="shared" ref="B68:B69" si="12">+C68*1000000/8760</f>
+        <v>176.98892694063926</v>
+      </c>
+      <c r="C68">
+        <v>1.5504230000000001</v>
+      </c>
+      <c r="D68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <f t="shared" si="12"/>
+        <v>1628.2191780821918</v>
+      </c>
+      <c r="C69">
+        <v>14.263199999999999</v>
+      </c>
+      <c r="D69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <f>+SUM(B64:B69)</f>
+        <v>22704.924315068492</v>
+      </c>
+      <c r="C71">
+        <f>+SUM(C64:C69)</f>
+        <v>198.89513700000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <f t="shared" ref="B75:B77" si="13">+C75*1000000/8760</f>
+        <v>0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <f t="shared" si="13"/>
+        <v>3564.2764840182649</v>
+      </c>
+      <c r="C76">
+        <v>31.223061999999999</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <f t="shared" si="13"/>
+        <v>77.662214611872145</v>
+      </c>
+      <c r="C77">
+        <v>0.68032099999999995</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="3">
+        <f>+C78*1000000/8760</f>
+        <v>16403.733904109587</v>
+      </c>
+      <c r="C78">
+        <v>143.696709</v>
+      </c>
+      <c r="D78" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <f t="shared" ref="B79:B80" si="14">+C79*1000000/8760</f>
+        <v>168.63082191780822</v>
+      </c>
+      <c r="C79">
+        <v>1.477206</v>
+      </c>
+      <c r="D79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <f t="shared" si="14"/>
+        <v>1628.2191780821918</v>
+      </c>
+      <c r="C80">
+        <v>14.263199999999999</v>
+      </c>
+      <c r="D80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <f>+SUM(B75:B80)</f>
+        <v>21842.522602739726</v>
+      </c>
+      <c r="C82">
+        <f>+SUM(C75:C80)</f>
+        <v>191.340498</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>23</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <f t="shared" ref="B85:B87" si="15">+C85*1000000/8760</f>
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <f t="shared" si="15"/>
+        <v>3564.2764840182649</v>
+      </c>
+      <c r="C86">
+        <v>31.223061999999999</v>
+      </c>
+      <c r="D86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <f t="shared" si="15"/>
+        <v>77.681164383561651</v>
+      </c>
+      <c r="C87">
+        <v>0.68048699999999995</v>
+      </c>
+      <c r="D87" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="3">
+        <f>+C88*1000000/8760</f>
+        <v>11822.540867579908</v>
+      </c>
+      <c r="C88">
+        <v>103.56545800000001</v>
+      </c>
+      <c r="D88" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <f t="shared" ref="B89:B90" si="16">+C89*1000000/8760</f>
+        <v>122.47374429223744</v>
+      </c>
+      <c r="C89">
+        <v>1.07287</v>
+      </c>
+      <c r="D89" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <f t="shared" si="16"/>
+        <v>1561.6438356164383</v>
+      </c>
+      <c r="C90">
+        <v>13.68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <f>+SUM(B85:B90)</f>
+        <v>17148.616095890411</v>
+      </c>
+      <c r="C92">
+        <f>+SUM(C85:C90)</f>
+        <v>150.22187700000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>24</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <f t="shared" ref="B96:B98" si="17">+C96*1000000/8760</f>
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <f t="shared" si="17"/>
+        <v>3564.2764840182649</v>
+      </c>
+      <c r="C97">
+        <v>31.223061999999999</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <f t="shared" si="17"/>
+        <v>71.417579908675805</v>
+      </c>
+      <c r="C98">
+        <v>0.62561800000000001</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="3">
+        <f>+C99*1000000/8760</f>
+        <v>12815.509246575342</v>
+      </c>
+      <c r="C99">
+        <v>112.26386100000001</v>
+      </c>
+      <c r="D99" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <f t="shared" ref="B100:B101" si="18">+C100*1000000/8760</f>
+        <v>132.08904109589042</v>
+      </c>
+      <c r="C100">
+        <v>1.1571</v>
+      </c>
+      <c r="D100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <f t="shared" si="18"/>
+        <v>1561.6438356164383</v>
+      </c>
+      <c r="C101">
+        <v>13.68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <f>+SUM(B96:B101)</f>
+        <v>18144.936187214611</v>
+      </c>
+      <c r="C103">
+        <f>+SUM(C96:C101)</f>
+        <v>158.94964100000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <f t="shared" ref="B106:B108" si="19">+C106*1000000/8760</f>
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <f t="shared" si="19"/>
+        <v>3564.2764840182649</v>
+      </c>
+      <c r="C107">
+        <v>31.223061999999999</v>
+      </c>
+      <c r="D107" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <f t="shared" si="19"/>
+        <v>245.87123287671233</v>
+      </c>
+      <c r="C108">
+        <v>2.153832</v>
+      </c>
+      <c r="D108" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B109" s="3">
+        <f>+C109*1000000/8760</f>
+        <v>13554.712785388128</v>
+      </c>
+      <c r="C109">
+        <v>118.739284</v>
+      </c>
+      <c r="D109" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <f>+C110*1000000/8760</f>
+        <v>147.25707762557079</v>
+      </c>
+      <c r="C110">
+        <v>1.2899719999999999</v>
+      </c>
+      <c r="D110" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <f t="shared" ref="B110:B111" si="20">+C111*1000000/8760</f>
+        <v>1679.1780821917807</v>
+      </c>
+      <c r="C111">
+        <v>14.7096</v>
+      </c>
+      <c r="D111" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <f>+SUM(B106:B111)</f>
+        <v>19191.29566210046</v>
+      </c>
+      <c r="C113">
+        <f>+SUM(C106:C111)</f>
+        <v>168.11574999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>26</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <f t="shared" ref="B117:B119" si="21">+C117*1000000/8760</f>
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <f t="shared" si="21"/>
+        <v>3564.2764840182649</v>
+      </c>
+      <c r="C118">
+        <v>31.223061999999999</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <f t="shared" si="21"/>
+        <v>238.89417808219176</v>
+      </c>
+      <c r="C119">
+        <v>2.0927129999999998</v>
+      </c>
+      <c r="D119" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B120" s="3">
+        <f>+C120*1000000/8760</f>
+        <v>14020.033105022831</v>
+      </c>
+      <c r="C120">
+        <v>122.81549</v>
+      </c>
+      <c r="D120" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <f t="shared" ref="B121:B122" si="22">+C121*1000000/8760</f>
+        <v>151.60833333333332</v>
+      </c>
+      <c r="C121">
+        <v>1.3280890000000001</v>
+      </c>
+      <c r="D121" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <f t="shared" si="22"/>
+        <v>1679.1780821917807</v>
+      </c>
+      <c r="C122">
+        <v>14.7096</v>
+      </c>
+      <c r="D122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <f>+SUM(B117:B122)</f>
+        <v>19653.990182648402</v>
+      </c>
+      <c r="C124">
+        <f>+SUM(C117:C122)</f>
+        <v>172.16895399999999</v>
       </c>
     </row>
   </sheetData>
